--- a/解决方案/git 增加changeID.xlsx
+++ b/解决方案/git 增加changeID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/工作总结/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/GitHub/kevinZhang/解决方案/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>四个提交，中间有一个没有changeID解决办法</t>
     <rPh sb="0" eb="1">
@@ -355,6 +355,58 @@
     <t>最后 ./push.sh</t>
     <rPh sb="0" eb="1">
       <t>zui'hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git hub增加小绿点的前提是 本地用户名和邮箱和远程仓库是一样的</t>
+    <rPh sb="7" eb="8">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lv'dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qian'ti</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ben'di</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yong'hu'ming</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yuan'cheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cang'ku</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yi'yang</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>d</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="82.6640625" defaultRowHeight="97" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,6 +876,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/解决方案/git 增加changeID.xlsx
+++ b/解决方案/git 增加changeID.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>四个提交，中间有一个没有changeID解决办法</t>
     <rPh sb="0" eb="1">
@@ -407,6 +407,30 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config user.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看用户名</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'xiang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="82.6640625" defaultRowHeight="97" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -881,6 +905,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
